--- a/src/main/resources/templates/excel/event_record.xlsx
+++ b/src/main/resources/templates/excel/event_record.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yiwen.sang\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="5700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -78,10 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${model.eventTypeStr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${model.description}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -118,7 +110,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${model.handle_result}</t>
+    <t>${model.eventTypeStr}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${model.handleResult}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -495,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -558,34 +554,34 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
       </c>
       <c r="L2" t="s">
         <v>23</v>
